--- a/biology/Zoologie/Chevalier_(oiseau)/Chevalier_(oiseau).xlsx
+++ b/biology/Zoologie/Chevalier_(oiseau)/Chevalier_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Chevalier » est un nom générique qui désigne différentes espèces d'échassiers de la famille des Scolopacidae. Globalement plus grands que les bécasseaux et plus petits que les courlis ou les barges, ils fréquentent les zones marécageuses ou les estuaires, souvent marchant en bordure de l'eau à la recherche de nourriture (petits crustacés principalement). Les différentes espèces sont parfois difficiles à identifier.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des chevaliers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chevalier aboyeur — Tringa nebularia
 Chevalier arlequin — Tringa erythropus
